--- a/biology/Botanique/Dorotheanthus/Dorotheanthus.xlsx
+++ b/biology/Botanique/Dorotheanthus/Dorotheanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorotheanthus Schwantes est un genre de plantes de la famille des Aizoaceae. Il rassemble des plantes succulentes tapissantes, à larges fleurs aux coloris généralement soutenus et variés, dont certaines sont connues sous le nom vernaculaire de ficoïde.
 </t>
@@ -511,16 +523,87 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1927 par le botaniste allemand Gustav Schwantes (1881-1960), in Möller's Deutsche Gärtn.-Zeitung 42: 283 (1927).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1927 par le botaniste allemand Gustav Schwantes (1881-1960), in Möller's Deutsche Gärtn.-Zeitung 42: 283 (1927).
 Type : Dorotheanthus gramineus (Haw.) Schwantes (Mesembryanthemum gramineum Haw.)
-Liste des sous-genres
-Selon[réf. nécessaire] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dorotheanthus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorotheanthus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon[réf. nécessaire] :
 Dorotheanthus subgen. Dorotheanthus
-Dorotheanthus subgen. Pherolobus (N.E.Br.) Ihlenf. &amp; Struck
-Liste d'espèces
-Selon The Plant List            (13 avril 2014)[1] :
+Dorotheanthus subgen. Pherolobus (N.E.Br.) Ihlenf. &amp; Struck</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dorotheanthus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorotheanthus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (13 avril 2014) :
 Dorotheanthus apetalus (L.f.) N.E.Br.
 Dorotheanthus bellidiformis (Burm.f.) N.E.Br.
 Dorotheanthus booysenii L.Bolus
